--- a/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/UniformTasks_GENERAL.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_05-10240/UniformTasks_GENERAL.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\SCFramework\SCFrameworkImpl\Results\Current Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\SCFramework\SCFrameworkImpl\Results\Current Results\ChangeTaskRate_05-10240\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UniformTasks_GENERAL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1106,11 +1106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="505182480"/>
-        <c:axId val="505184832"/>
+        <c:axId val="282443552"/>
+        <c:axId val="282447472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="505182480"/>
+        <c:axId val="282443552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505184832"/>
+        <c:crossAx val="282447472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="505184832"/>
+        <c:axId val="282447472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -1213,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505182480"/>
+        <c:crossAx val="282443552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,11 +2188,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="427550616"/>
-        <c:axId val="427551008"/>
+        <c:axId val="282447864"/>
+        <c:axId val="300982504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="427550616"/>
+        <c:axId val="282447864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427551008"/>
+        <c:crossAx val="300982504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="427551008"/>
+        <c:axId val="300982504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2407,7 +2407,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427550616"/>
+        <c:crossAx val="282447864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17119,8 +17119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
